--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,783 +490,937 @@
     <t>Allows identification of the charge Item as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>FT1.2</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.type.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dpci-27-2218-1:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then fixed value Transaction Number {true}</t>
+  </si>
+  <si>
+    <t>2218-1: fixed value = Transaction Number if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dpci-27-2218:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then source value from (350-.12) {true}</t>
+  </si>
+  <si>
+    <t>2218: source value based on INTEGRATED BILLING ACTION - AR TRANSACTION NUMBER (350-.12) if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
+  </si>
+  <si>
+    <t>IB.IBAction.ARTransactionNumber</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ChargeItem.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ChargeItem.definitionUri</t>
+  </si>
+  <si>
+    <t>Defining information about the code of this charge item</t>
+  </si>
+  <si>
+    <t>References the (external) source of pricing information, rules of application for the code this ChargeItem uses.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ChargeItem.definitionCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ChargeItemDefinition)
+</t>
+  </si>
+  <si>
+    <t>Resource defining the code of this ChargeItem</t>
+  </si>
+  <si>
+    <t>References the source of pricing information, rules of application for the code this ChargeItem uses.</t>
+  </si>
+  <si>
+    <t>ChargeItem.status</t>
+  </si>
+  <si>
+    <t>planned | billable | not-billable | aborted | billed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the ChargeItem.</t>
+  </si>
+  <si>
+    <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the charge item as not currently valid.</t>
+  </si>
+  <si>
+    <t>billed</t>
+  </si>
+  <si>
+    <t>Codes identifying the lifecycle stage of a ChargeItem.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/chargeitem-status|4.0.1</t>
+  </si>
+  <si>
+    <t>1838: fixed value = #billed</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>ChargeItem.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ChargeItem)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced ChargeItem</t>
+  </si>
+  <si>
+    <t>ChargeItems can be grouped to larger ChargeItems covering the whole set.</t>
+  </si>
+  <si>
+    <t>E.g. Drug administration as part of a procedure, procedure as part of observation, etc.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>ChargeItem.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t>A code that identifies the charge, like a billing code</t>
+  </si>
+  <si>
+    <t>A code that identifies the charge, like a billing code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Example set of codes that can be used for billing purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/chargeitem-billingcodes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>FT1.7</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ChargeItem.code.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.code.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.code.coding</t>
+  </si>
+  <si>
+    <t>ChargeItem.code.text</t>
+  </si>
+  <si>
+    <t>1836: source value based on INTEGRATED BILLING ACTION - ACTION TYPE &gt; IB ACTION TYPE - CHARGE CATEGORY (350-.03 &gt; 350.1-.03)</t>
+  </si>
+  <si>
+    <t>IB.IBAction.IBActionTypeIEN
+Dim.IBActionType.AccountsReceivableCategory,Dim.IBActionType.ARCategoryIEN</t>
+  </si>
+  <si>
+    <t>ChargeItem.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://va.gov/fhir/StructureDefinition/Patient)
+</t>
+  </si>
+  <si>
+    <t>Individual service was done for/to</t>
+  </si>
+  <si>
+    <t>The individual or set of individuals the action is being or was performed on.</t>
+  </si>
+  <si>
+    <t>Links the event to the Patient context.</t>
+  </si>
+  <si>
+    <t>1839: reference based on INTEGRATED BILLING ACTION - PATIENT (350-.02)</t>
+  </si>
+  <si>
+    <t>IB.IBAction.PatientIEN</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PAT in proximity to FT1 segment</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>ChargeItem.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encounter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://va.gov/fhir/StructureDefinition/EncounterOutpatient|http://va.gov/fhir/StructureDefinition/EncounterInpatientEncounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter / Episode associated with event</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care that establishes the context for this event.</t>
+  </si>
+  <si>
+    <t>Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dpci-27-2008:If 360-1.04 == 350  &amp;&amp; Outpatient then reference /EncounterOutpatient based on (360-1.02 &gt; 399-304&gt;399.0304-20&gt;409.68-.05) {true}dpci-27-2009:If 360-1.04 == 350 &amp;&amp; Inpatient then reference /EncounterInpatientEncounter based on (360-1.02 &gt; 399-.08) {true}</t>
+  </si>
+  <si>
+    <t>2009: reference based on IB-FB INTERFACE TRACKING - BILL/CLAIMS &gt; BILL/CLAIMS - PTF ENTRY NUMBER (360-1.02 &gt; 399-.08) if 360-1.04 == 350 &amp;&amp; Inpatient</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1 in proximity to FT1 segment</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When the charged service was applied</t>
+  </si>
+  <si>
+    <t>Date/time(s) or duration when the charged service was applied.</t>
+  </si>
+  <si>
+    <t>The list of types may be constrained as appropriate for the type of charge item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x]:occurrencePeriod</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x]:occurrencePeriod.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x].id</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x]:occurrencePeriod.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x].extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x]:occurrencePeriod.start</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x].start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>1973: source value based on INTEGRATED BILLING ACTION - DATE BILLED FROM (350-.14)</t>
+  </si>
+  <si>
+    <t>IB.IBAction.BillFromDateTime</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x]:occurrencePeriod.end</t>
+  </si>
+  <si>
+    <t>ChargeItem.occurrence[x].end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>1974: source value based on INTEGRATED BILLING ACTION - DATE BILLED TO (350-.15)</t>
+  </si>
+  <si>
+    <t>IB.IBAction.BillToDateTime</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed charged service</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed or participated in the charged service.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>EVN.5 or by domain</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance or participation(e.g. primary surgeon, anesthesiologiest, etc.).</t>
+  </si>
+  <si>
+    <t>Codes describing the types of functional roles performers can take on when performing events.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Individual who was performing</t>
+  </si>
+  <si>
+    <t>The device, practitioner, etc. who performed or participated in the service.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ChargeItem.performingOrganization</t>
+  </si>
+  <si>
+    <t>Organization providing the charged service</t>
+  </si>
+  <si>
+    <t>The organization requesting the service.</t>
+  </si>
+  <si>
+    <t>Practitioners and Devices can be associated with multiple organizations. It has to be made clear, on behalf of which Organization the services have been rendered.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>ChargeItem.requestingOrganization</t>
+  </si>
+  <si>
+    <t>Organization requesting the charged service</t>
+  </si>
+  <si>
+    <t>The organization performing the service.</t>
+  </si>
+  <si>
+    <t>The rendered Service might not be associated with a Request. This property indicates which Organization requested the services to be rendered. (In many cases, this may just be the Department associated with the Encounter.location).</t>
+  </si>
+  <si>
+    <t>ChargeItem.costCenter</t>
+  </si>
+  <si>
+    <t>Organization that has ownership of the (potential, future) revenue</t>
+  </si>
+  <si>
+    <t>The financial cost center permits the tracking of charge attribution.</t>
+  </si>
+  <si>
+    <t>The costCenter could either be given as a reference to an Organization(Role) resource or as the identifier of the cost center determined by Reference.identifier.value and Reference.identifier.system, depending on use case requirements.</t>
+  </si>
+  <si>
+    <t>FT1.13</t>
+  </si>
+  <si>
+    <t>ChargeItem.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Quantity of which the charge item has been serviced</t>
+  </si>
+  <si>
+    <t>Quantity of which the charge item has been serviced.</t>
+  </si>
+  <si>
+    <t>In many cases this may just be a value, if the underlying units are implicit in the definition of the charge item code.</t>
+  </si>
+  <si>
+    <t>FT1.10</t>
+  </si>
+  <si>
+    <t>ChargeItem.bodysite</t>
+  </si>
+  <si>
+    <t>Anatomical location, if relevant</t>
+  </si>
+  <si>
+    <t>The anatomical location where the related service has been applied.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>.targetBodySiteCode</t>
+  </si>
+  <si>
+    <t>ChargeItem.factorOverride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Factor overriding the associated rules</t>
+  </si>
+  <si>
+    <t>Factor overriding the factor determined by the rules associated with the code.</t>
+  </si>
+  <si>
+    <t>There is no reason to carry the factor in the instance of a ChargeItem unless special circumstances require a manual override. The factors are usually defined by a set of rules in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
+  </si>
+  <si>
+    <t>FT1.26</t>
+  </si>
+  <si>
+    <t>ChargeItem.priceOverride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money
+</t>
+  </si>
+  <si>
+    <t>Price overriding the associated rules</t>
+  </si>
+  <si>
+    <t>Total price of the charge overriding the list price associated with the code.</t>
+  </si>
+  <si>
+    <t>There is no reason to carry the price in the instance of a ChargeItem unless circumstances require a manual override. The list prices or are usually defined in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
+  </si>
+  <si>
+    <t>FT1.22</t>
+  </si>
+  <si>
+    <t>ChargeItem.overrideReason</t>
+  </si>
+  <si>
+    <t>Reason for overriding the list price/factor</t>
+  </si>
+  <si>
+    <t>If the list price or the rule-based factor associated with the code is overridden, this attribute can capture a text to indicate the  reason for this action.</t>
+  </si>
+  <si>
+    <t>Derived Profiles may choose to add invariants requiring this field to be populated if either priceOverride or factorOverride have been filled.</t>
+  </si>
+  <si>
+    <t>ChargeItem.enterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Individual who was entering</t>
+  </si>
+  <si>
+    <t>The device, practitioner, etc. who entered the charge item.</t>
+  </si>
+  <si>
+    <t>The enterer is also the person considered responsible for factor/price overrides if applicable.</t>
+  </si>
+  <si>
+    <t>ChargeItem.enteredDate</t>
+  </si>
+  <si>
+    <t>Date the charge item was entered</t>
+  </si>
+  <si>
+    <t>Date the charge item was entered.</t>
+  </si>
+  <si>
+    <t>The actual date when the service associated with the charge has been rendered is captured in occurrence[x].</t>
+  </si>
+  <si>
+    <t>1835: source value based on INTEGRATED BILLING ACTION - DATE ENTRY ADDED (350-12)</t>
+  </si>
+  <si>
+    <t>IB.IBAction.EnteredDateTime</t>
+  </si>
+  <si>
+    <t>ChargeItem.reason</t>
+  </si>
+  <si>
+    <t>Why was the charged  service rendered?</t>
+  </si>
+  <si>
+    <t>Describes why the event occurred in coded or textual form.</t>
+  </si>
+  <si>
+    <t>If the application of the charge item requires a reason to be given, it can be captured here. Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Example binding for reason.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/icd-10</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>EVN.4 or by domain</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ChargeItem.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DiagnosticReport|ImagingStudy|Immunization|MedicationAdministration|MedicationDispense|Observation|Procedure|SupplyDelivery)
+</t>
+  </si>
+  <si>
+    <t>Which rendered service is being charged?</t>
+  </si>
+  <si>
+    <t>Indicated the rendered service that caused this charge.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>FT1.2</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-billno</t>
-  </si>
-  <si>
-    <t>va-billno</t>
-  </si>
-  <si>
-    <t>1837: source value based on INTEGRATED BILLING ACTION - AR BILL NUMBER (350-.11)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.ARBillNumber</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-artransno</t>
-  </si>
-  <si>
-    <t>va-artransno</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2218:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then source value from (350-.12) {true}</t>
-  </si>
-  <si>
-    <t>2218: source value based on INTEGRATED BILLING ACTION - AR TRANSACTION NUMBER (350-.12) if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
-  </si>
-  <si>
-    <t>IB.IBAction.ARTransactionNumber</t>
-  </si>
-  <si>
-    <t>ChargeItem.definitionUri</t>
-  </si>
-  <si>
-    <t>Defining information about the code of this charge item</t>
-  </si>
-  <si>
-    <t>References the (external) source of pricing information, rules of application for the code this ChargeItem uses.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ChargeItem.definitionCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ChargeItemDefinition)
-</t>
-  </si>
-  <si>
-    <t>Resource defining the code of this ChargeItem</t>
-  </si>
-  <si>
-    <t>References the source of pricing information, rules of application for the code this ChargeItem uses.</t>
-  </si>
-  <si>
-    <t>ChargeItem.status</t>
-  </si>
-  <si>
-    <t>planned | billable | not-billable | aborted | billed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The current state of the ChargeItem.</t>
-  </si>
-  <si>
-    <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the charge item as not currently valid.</t>
-  </si>
-  <si>
-    <t>billed</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes identifying the lifecycle stage of a ChargeItem.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/chargeitem-status|4.0.1</t>
-  </si>
-  <si>
-    <t>1838: fixed value = #billed</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>ChargeItem.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ChargeItem)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced ChargeItem</t>
-  </si>
-  <si>
-    <t>ChargeItems can be grouped to larger ChargeItems covering the whole set.</t>
-  </si>
-  <si>
-    <t>E.g. Drug administration as part of a procedure, procedure as part of observation, etc.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>ChargeItem.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>A code that identifies the charge, like a billing code</t>
-  </si>
-  <si>
-    <t>A code that identifies the charge, like a billing code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Example set of codes that can be used for billing purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/chargeitem-billingcodes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>FT1.7</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ChargeItem.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ChargeItem.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ChargeItem.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>1836: source value based on INTEGRATED BILLING ACTION - ACTION TYPE &gt; IB ACTION TYPE - CHARGE CATEGORY (350-.03 &gt; 350.1-.03)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.IBActionTypeIEN
-Dim.IBActionType.AccountsReceivableCategory,Dim.IBActionType.ARCategoryIEN</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ChargeItem.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://va.gov/fhir/StructureDefinition/Patient)
-</t>
-  </si>
-  <si>
-    <t>Individual service was done for/to</t>
-  </si>
-  <si>
-    <t>The individual or set of individuals the action is being or was performed on.</t>
-  </si>
-  <si>
-    <t>Links the event to the Patient context.</t>
-  </si>
-  <si>
-    <t>1839: reference based on INTEGRATED BILLING ACTION - PATIENT (350-.02)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.PatientIEN</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PAT in proximity to FT1 segment</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>ChargeItem.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://va.gov/fhir/StructureDefinition/EncounterOutpatient|http://va.gov/fhir/StructureDefinition/EncounterInpatientEncounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter / Episode associated with event</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care that establishes the context for this event.</t>
-  </si>
-  <si>
-    <t>Links the request to the Encounter context.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2008:If 360-1.04 == 350  &amp;&amp; Outpatient then reference /EncounterOutpatient based on (360-1.02 &gt; 399-304&gt;399.0304-20&gt;409.68-.05) {true}dpci-27-2009:If 360-1.04 == 350 &amp;&amp; Inpatient then reference /EncounterInpatientEncounter based on (360-1.02 &gt; 399-.08) {true}</t>
-  </si>
-  <si>
-    <t>2009: reference based on IB-FB INTERFACE TRACKING - BILL/CLAIMS &gt; BILL/CLAIMS - PTF ENTRY NUMBER (360-1.02 &gt; 399-.08) if 360-1.04 == 350 &amp;&amp; Inpatient</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1 in proximity to FT1 segment</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>When the charged service was applied</t>
-  </si>
-  <si>
-    <t>Date/time(s) or duration when the charged service was applied.</t>
-  </si>
-  <si>
-    <t>The list of types may be constrained as appropriate for the type of charge item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x]:occurrencePeriod</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x]:occurrencePeriod.id</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x].id</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x]:occurrencePeriod.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x].extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x]:occurrencePeriod.start</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x].start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>1973: source value based on INTEGRATED BILLING ACTION - DATE BILLED FROM (350-.14)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.BillFromDateTime</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x]:occurrencePeriod.end</t>
-  </si>
-  <si>
-    <t>ChargeItem.occurrence[x].end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>1974: source value based on INTEGRATED BILLING ACTION - DATE BILLED TO (350-.15)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.BillToDateTime</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed charged service</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed or participated in the charged service.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>EVN.5 or by domain</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.id</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance or participation(e.g. primary surgeon, anesthesiologiest, etc.).</t>
-  </si>
-  <si>
-    <t>Codes describing the types of functional roles performers can take on when performing events.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Individual who was performing</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who performed or participated in the service.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ChargeItem.performingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization providing the charged service</t>
-  </si>
-  <si>
-    <t>The organization requesting the service.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations. It has to be made clear, on behalf of which Organization the services have been rendered.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>ChargeItem.requestingOrganization</t>
-  </si>
-  <si>
-    <t>Organization requesting the charged service</t>
-  </si>
-  <si>
-    <t>The organization performing the service.</t>
-  </si>
-  <si>
-    <t>The rendered Service might not be associated with a Request. This property indicates which Organization requested the services to be rendered. (In many cases, this may just be the Department associated with the Encounter.location).</t>
-  </si>
-  <si>
-    <t>ChargeItem.costCenter</t>
-  </si>
-  <si>
-    <t>Organization that has ownership of the (potential, future) revenue</t>
-  </si>
-  <si>
-    <t>The financial cost center permits the tracking of charge attribution.</t>
-  </si>
-  <si>
-    <t>The costCenter could either be given as a reference to an Organization(Role) resource or as the identifier of the cost center determined by Reference.identifier.value and Reference.identifier.system, depending on use case requirements.</t>
-  </si>
-  <si>
-    <t>FT1.13</t>
-  </si>
-  <si>
-    <t>ChargeItem.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Quantity of which the charge item has been serviced</t>
-  </si>
-  <si>
-    <t>Quantity of which the charge item has been serviced.</t>
-  </si>
-  <si>
-    <t>In many cases this may just be a value, if the underlying units are implicit in the definition of the charge item code.</t>
-  </si>
-  <si>
-    <t>FT1.10</t>
-  </si>
-  <si>
-    <t>ChargeItem.bodysite</t>
-  </si>
-  <si>
-    <t>Anatomical location, if relevant</t>
-  </si>
-  <si>
-    <t>The anatomical location where the related service has been applied.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>.targetBodySiteCode</t>
-  </si>
-  <si>
-    <t>ChargeItem.factorOverride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Factor overriding the associated rules</t>
-  </si>
-  <si>
-    <t>Factor overriding the factor determined by the rules associated with the code.</t>
-  </si>
-  <si>
-    <t>There is no reason to carry the factor in the instance of a ChargeItem unless special circumstances require a manual override. The factors are usually defined by a set of rules in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
-  </si>
-  <si>
-    <t>FT1.26</t>
-  </si>
-  <si>
-    <t>ChargeItem.priceOverride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money
-</t>
-  </si>
-  <si>
-    <t>Price overriding the associated rules</t>
-  </si>
-  <si>
-    <t>Total price of the charge overriding the list price associated with the code.</t>
-  </si>
-  <si>
-    <t>There is no reason to carry the price in the instance of a ChargeItem unless circumstances require a manual override. The list prices or are usually defined in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
-  </si>
-  <si>
-    <t>FT1.22</t>
-  </si>
-  <si>
-    <t>ChargeItem.overrideReason</t>
-  </si>
-  <si>
-    <t>Reason for overriding the list price/factor</t>
-  </si>
-  <si>
-    <t>If the list price or the rule-based factor associated with the code is overridden, this attribute can capture a text to indicate the  reason for this action.</t>
-  </si>
-  <si>
-    <t>Derived Profiles may choose to add invariants requiring this field to be populated if either priceOverride or factorOverride have been filled.</t>
-  </si>
-  <si>
-    <t>ChargeItem.enterer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Individual who was entering</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who entered the charge item.</t>
-  </si>
-  <si>
-    <t>The enterer is also the person considered responsible for factor/price overrides if applicable.</t>
-  </si>
-  <si>
-    <t>ChargeItem.enteredDate</t>
-  </si>
-  <si>
-    <t>Date the charge item was entered</t>
-  </si>
-  <si>
-    <t>Date the charge item was entered.</t>
-  </si>
-  <si>
-    <t>The actual date when the service associated with the charge has been rendered is captured in occurrence[x].</t>
-  </si>
-  <si>
-    <t>1835: source value based on INTEGRATED BILLING ACTION - DATE ENTRY ADDED (350-12)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.EnteredDateTime</t>
-  </si>
-  <si>
-    <t>ChargeItem.reason</t>
-  </si>
-  <si>
-    <t>Why was the charged  service rendered?</t>
-  </si>
-  <si>
-    <t>Describes why the event occurred in coded or textual form.</t>
-  </si>
-  <si>
-    <t>If the application of the charge item requires a reason to be given, it can be captured here. Textual reasons can be captured using reasonCode.text.</t>
-  </si>
-  <si>
-    <t>Example binding for reason.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/icd-10</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>EVN.4 or by domain</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ChargeItem.service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|ImagingStudy|Immunization|MedicationAdministration|MedicationDispense|Observation|Procedure|SupplyDelivery)
-</t>
-  </si>
-  <si>
-    <t>Which rendered service is being charged?</t>
-  </si>
-  <si>
-    <t>Indicated the rendered service that caused this charge.</t>
-  </si>
-  <si>
     <t>Event.reasonReference</t>
   </si>
   <si>
@@ -1398,6 +1552,134 @@
   </si>
   <si>
     <t>Event.supportingInfo</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.use</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Bill Number</t>
+  </si>
+  <si>
+    <t>1837-1: fixed value = Bill Number</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.system</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.value</t>
+  </si>
+  <si>
+    <t>1837: source value based on INTEGRATED BILLING ACTION - AR BILL NUMBER (350-.11)</t>
+  </si>
+  <si>
+    <t>IB.IBAction.ARBillNumber</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.period</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.assigner</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP55"/>
+  <dimension ref="A1:AP83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1726,8 +2008,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1745,12 +2027,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.21484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="41.3984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -1765,7 +2047,7 @@
     <col min="38" max="38" width="65.41796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="83.85546875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3050,14 +3332,16 @@
         <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>147</v>
@@ -3081,28 +3365,26 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3114,27 +3396,25 @@
         <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3182,37 +3462,37 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="AP12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3220,43 +3500,41 @@
         <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3292,19 +3570,19 @@
         <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3316,33 +3594,33 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3353,28 +3631,32 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3398,13 +3680,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3422,13 +3704,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3443,13 +3725,13 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3457,10 +3739,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3471,7 +3753,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3480,19 +3762,23 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3516,13 +3802,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3540,13 +3826,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3561,13 +3847,13 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -3575,10 +3861,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3586,32 +3872,30 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3621,7 +3905,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -3636,13 +3920,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3660,10 +3944,10 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>90</v>
@@ -3672,37 +3956,37 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3721,18 +4005,18 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3768,19 +4052,19 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3792,7 +4076,7 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3801,13 +4085,13 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>79</v>
@@ -3815,21 +4099,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3841,16 +4125,20 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3874,13 +4162,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3901,10 +4189,10 @@
         <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3919,24 +4207,24 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3950,25 +4238,29 @@
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4016,7 +4308,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4028,10 +4320,10 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
@@ -4040,10 +4332,10 @@
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>79</v>
@@ -4051,21 +4343,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4074,21 +4366,23 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4100,7 +4394,7 @@
         <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>79</v>
@@ -4124,46 +4418,46 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4171,10 +4465,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4185,10 +4479,10 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4197,20 +4491,18 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>225</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4222,7 +4514,7 @@
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4258,34 +4550,34 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4293,10 +4585,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4310,7 +4602,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
@@ -4319,20 +4611,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O22" t="s" s="2">
         <v>233</v>
       </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4395,19 +4683,19 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4415,24 +4703,24 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
@@ -4441,18 +4729,18 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4500,10 +4788,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4515,64 +4803,62 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4620,56 +4906,56 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4678,20 +4964,18 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4728,23 +5012,25 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4759,58 +5045,56 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4821,7 +5105,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4836,13 +5120,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4860,10 +5144,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -4875,41 +5159,41 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4921,16 +5205,18 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4978,19 +5264,19 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -4999,13 +5285,13 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -5013,21 +5299,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5036,20 +5322,18 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5074,43 +5358,43 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5119,24 +5403,24 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5150,26 +5434,24 @@
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5218,7 +5500,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5227,25 +5509,25 @@
         <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5253,50 +5535,48 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>296</v>
+        <v>139</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5328,46 +5608,46 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5375,10 +5655,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5398,19 +5678,23 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5458,7 +5742,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5479,13 +5763,13 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5493,10 +5777,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5510,25 +5794,29 @@
         <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5576,7 +5864,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5588,22 +5876,22 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -5611,44 +5899,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5696,80 +5984,78 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5818,49 +6104,49 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5876,10 +6162,10 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>318</v>
@@ -5887,7 +6173,9 @@
       <c r="M35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5912,31 +6200,29 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5960,29 +6246,31 @@
         <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -5994,18 +6282,20 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6054,10 +6344,10 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>90</v>
@@ -6075,24 +6365,24 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6115,17 +6405,15 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6174,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6186,7 +6474,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6195,13 +6483,13 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6209,21 +6497,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6235,16 +6523,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>137</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>340</v>
+        <v>139</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6282,31 +6570,31 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6318,10 +6606,10 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -6329,10 +6617,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6346,25 +6634,25 @@
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6414,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6423,25 +6711,25 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6449,10 +6737,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6466,7 +6754,7 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>79</v>
@@ -6475,22 +6763,24 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="R40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6534,7 +6824,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6543,25 +6833,25 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6569,10 +6859,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6592,20 +6882,18 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>199</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6630,13 +6918,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6654,7 +6942,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6675,13 +6963,13 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -6689,10 +6977,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6715,17 +7003,15 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>158</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6774,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6786,7 +7072,7 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6798,10 +7084,10 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>79</v>
@@ -6809,21 +7095,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6835,16 +7121,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>139</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6894,19 +7180,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -6918,10 +7204,10 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -6929,44 +7215,46 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7014,19 +7302,19 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7041,7 +7329,7 @@
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -7049,10 +7337,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7072,20 +7360,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>376</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7110,13 +7396,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7134,7 +7420,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7155,24 +7441,24 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7180,32 +7466,30 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7254,10 +7538,10 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -7269,30 +7553,30 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7303,7 +7587,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7315,16 +7599,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7350,13 +7634,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7374,13 +7658,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7395,24 +7679,24 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>393</v>
+        <v>133</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7423,7 +7707,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7435,15 +7719,17 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>238</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7480,23 +7766,25 @@
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7511,28 +7799,26 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>393</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7544,7 +7830,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>79</v>
@@ -7553,15 +7839,17 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>238</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7610,49 +7898,47 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>405</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7664,16 +7950,16 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>398</v>
@@ -7681,7 +7967,9 @@
       <c r="M50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7736,43 +8024,41 @@
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7781,27 +8067,29 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7826,13 +8114,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7850,7 +8138,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7862,33 +8150,33 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>415</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7911,15 +8199,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7944,13 +8234,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7968,7 +8258,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7992,10 +8282,10 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8003,10 +8293,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8017,7 +8307,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8026,19 +8316,19 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8088,13 +8378,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8112,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8123,10 +8413,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8137,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8149,15 +8439,17 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>157</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8206,13 +8498,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8227,13 +8519,13 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8241,10 +8533,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8255,7 +8547,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8264,18 +8556,20 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8324,13 +8618,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8345,20 +8639,3372 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP55" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AC58" s="2"/>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP55">
+  <autoFilter ref="A1:AP83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8368,7 +12014,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -918,7 +918,8 @@
   </si>
   <si>
     <t>IB.IBAction.IBActionTypeIEN
-Dim.IBActionType.AccountsReceivableCategory,Dim.IBActionType.ARCategoryIEN</t>
+Dim.IBActionType.AccountsReceivableCategory
+Dim.IBActionType.ARCategoryIEN</t>
   </si>
   <si>
     <t>ChargeItem.subject</t>
@@ -2044,7 +2045,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="155.70703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="65.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="38.4140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="87.9765625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -981,10 +981,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2008:If 360-1.04 == 350  &amp;&amp; Outpatient then reference /EncounterOutpatient based on (360-1.02 &gt; 399-304&gt;399.0304-20&gt;409.68-.05) {true}dpci-27-2009:If 360-1.04 == 350 &amp;&amp; Inpatient then reference /EncounterInpatientEncounter based on (360-1.02 &gt; 399-.08) {true}</t>
-  </si>
-  <si>
-    <t>2009: reference based on IB-FB INTERFACE TRACKING - BILL/CLAIMS &gt; BILL/CLAIMS - PTF ENTRY NUMBER (360-1.02 &gt; 399-.08) if 360-1.04 == 350 &amp;&amp; Inpatient</t>
+dpci-27-2008:If {1.04&gt;350} &amp;&amp; Outpatient then reference /EncounterOutpatient based on (360-1.02 &gt; 399-304&gt;399.0304-20&gt;409.68-.05) {true}dpci-27-2009:If {1.04&gt;350} &amp;&amp; Inpatient then reference /EncounterInpatientEncounter based on (360-1.02 &gt; 399-.08) {true}</t>
+  </si>
+  <si>
+    <t>2009: reference based on IB-FB INTERFACE TRACKING - BILL/CLAIMS &gt; BILL/CLAIMS - PTF ENTRY NUMBER (360-1.02 &gt; 399-.08) if {1.04&gt;350} &amp;&amp; Inpatient</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1439,10 +1439,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2010:If 52-106 == 350 then reference /MedicationDispenseOriginal based on (52-) {true}</t>
-  </si>
-  <si>
-    <t>2010: reference based on PRESCRIPTION - (52-) if 52-106 == 350</t>
+dpci-27-2010:If {106&gt;350} then reference /MedicationDispenseOriginal based on (52-) {true}</t>
+  </si>
+  <si>
+    <t>2010: reference based on PRESCRIPTION - (52-) if {106&gt;350}</t>
   </si>
   <si>
     <t>ChargeItem.service:va-rxrefill</t>
@@ -1456,10 +1456,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2011:If 52-106 == 350 then reference /MedicationDispenseRefill based on (52-) {true}</t>
-  </si>
-  <si>
-    <t>2011: reference based on PRESCRIPTION - (52-) if 52-106 == 350</t>
+dpci-27-2011:If {106&gt;350} then reference /MedicationDispenseRefill based on (52-) {true}</t>
+  </si>
+  <si>
+    <t>2011: reference based on PRESCRIPTION - (52-) if {106&gt;350}</t>
   </si>
   <si>
     <t>ChargeItem.service:va-rxpartial</t>
@@ -1473,10 +1473,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2012:If 52-106 == 350 then reference /MedicationDispensePartial based on (52-) {true}</t>
-  </si>
-  <si>
-    <t>2012: reference based on PRESCRIPTION - (52-) if 52-106 == 350</t>
+dpci-27-2012:If {106&gt;350} then reference /MedicationDispensePartial based on (52-) {true}</t>
+  </si>
+  <si>
+    <t>2012: reference based on PRESCRIPTION - (52-) if {106&gt;350}</t>
   </si>
   <si>
     <t>ChargeItem.product[x]</t>

--- a/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeItemcharges.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -653,14 +653,13 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
+    <t>Sta3n - IBAction.IEN</t>
+  </si>
+  <si>
     <t>CodeableConcept.text</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2218-1:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then fixed value Transaction Number {true}</t>
-  </si>
-  <si>
-    <t>2218-1: fixed value = Transaction Number if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
+    <t>2237-2: fixed value = Sta3n - IBAction.IEN</t>
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
@@ -708,20 +707,16 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
+    <t>Sta3n&amp;"-"&amp;{IEN (.001)}</t>
+  </si>
+  <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-dpci-27-2218:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then source value from (350-.12) {true}</t>
-  </si>
-  <si>
-    <t>2218: source value based on INTEGRATED BILLING ACTION - AR TRANSACTION NUMBER (350-.12) if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
-  </si>
-  <si>
-    <t>IB.IBAction.ARTransactionNumber</t>
+    <t>2237-1: fixed value = Sta3n&amp;"-"&amp;{IEN (.001)}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -1555,10 +1550,25 @@
     <t>Event.supportingInfo</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr</t>
+  </si>
+  <si>
+    <t>va-arbillnbr</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.id</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.id</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.extension</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.reference</t>
   </si>
   <si>
     <t>ChargeItem.supportingInformation.reference</t>
@@ -1580,6 +1590,9 @@
 </t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.type</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.type</t>
   </si>
   <si>
@@ -1600,6 +1613,9 @@
   </si>
   <si>
     <t>Reference.type</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier</t>
   </si>
   <si>
     <t>ChargeItem.supportingInformation.identifier</t>
@@ -1620,52 +1636,99 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.id</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.id</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.extension</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.extension</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.use</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.use</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.type</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.type</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.type.id</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.type.id</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.type.extension</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.type.extension</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.type.coding</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.type.coding</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.type.text</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.type.text</t>
   </si>
   <si>
     <t>Bill Number</t>
   </si>
   <si>
-    <t>1837-1: fixed value = Bill Number</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dpci-27-2218-1:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then fixed value Transaction Number {true}</t>
+  </si>
+  <si>
+    <t>2218-1: fixed value = Transaction Number if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.system</t>
   </si>
   <si>
     <t>ChargeItem.supportingInformation.identifier.system</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.value</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.value</t>
   </si>
   <si>
-    <t>1837: source value based on INTEGRATED BILLING ACTION - AR BILL NUMBER (350-.11)</t>
-  </si>
-  <si>
-    <t>IB.IBAction.ARBillNumber</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dpci-27-2218:If AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35 then source value from (350-.12) {true}</t>
+  </si>
+  <si>
+    <t>2218: source value based on INTEGRATED BILLING ACTION - AR TRANSACTION NUMBER (350-.12) if AR TRANSACTION - TRANSACTION TYPE &gt; ACCOUNTS RECEIVABLE TRANS.TYPE - IEN = 1 OR 35</t>
+  </si>
+  <si>
+    <t>IB.IBAction.ARTransactionNumber</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.period</t>
   </si>
   <si>
     <t>ChargeItem.supportingInformation.identifier.period</t>
   </si>
   <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.identifier.assigner</t>
+  </si>
+  <si>
     <t>ChargeItem.supportingInformation.identifier.assigner</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation:va-arbillnbr.display</t>
   </si>
   <si>
     <t>ChargeItem.supportingInformation.display</t>
@@ -2000,7 +2063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP83"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2009,7 +2072,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.53125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="47.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4270,7 +4333,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4309,7 +4372,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4321,7 +4384,7 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>207</v>
@@ -4512,10 +4575,10 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4551,7 +4614,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4563,22 +4626,22 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4586,10 +4649,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4612,13 +4675,13 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4669,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4693,10 +4756,10 @@
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4704,10 +4767,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4730,16 +4793,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4789,7 +4852,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4813,10 +4876,10 @@
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4824,10 +4887,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4853,10 +4916,10 @@
         <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4907,7 +4970,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4928,13 +4991,13 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4942,10 +5005,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4968,13 +5031,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5025,7 +5088,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5046,13 +5109,13 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -5060,10 +5123,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5089,13 +5152,13 @@
         <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5106,7 +5169,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5124,11 +5187,11 @@
         <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5145,7 +5208,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -5160,34 +5223,34 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5206,17 +5269,17 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5265,7 +5328,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5286,13 +5349,13 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -5300,14 +5363,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5329,10 +5392,10 @@
         <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5359,14 +5422,14 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5383,7 +5446,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
@@ -5404,24 +5467,24 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5536,10 +5599,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5656,10 +5719,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5778,10 +5841,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5865,7 +5928,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5880,10 +5943,10 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5900,14 +5963,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5926,17 +5989,17 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5985,7 +6048,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
@@ -6000,34 +6063,34 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6046,17 +6109,17 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6105,7 +6168,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6117,37 +6180,37 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6166,16 +6229,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6213,7 +6276,7 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
@@ -6223,7 +6286,7 @@
         <v>166</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6244,30 +6307,30 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="D36" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6286,16 +6349,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6345,7 +6408,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6366,24 +6429,24 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6498,10 +6561,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6618,10 +6681,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6644,16 +6707,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6703,7 +6766,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6712,25 +6775,25 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6738,10 +6801,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6764,68 +6827,68 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6834,25 +6897,25 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6860,10 +6923,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6886,13 +6949,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6943,7 +7006,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6964,13 +7027,13 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -6978,10 +7041,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7096,10 +7159,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7216,14 +7279,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7245,10 +7308,10 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>139</v>
@@ -7303,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7338,10 +7401,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7367,10 +7430,10 @@
         <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7397,14 +7460,14 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7421,7 +7484,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7442,13 +7505,13 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7456,10 +7519,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7482,13 +7545,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7539,7 +7602,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>90</v>
@@ -7560,24 +7623,24 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AP46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7600,16 +7663,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7659,7 +7722,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7680,13 +7743,13 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>79</v>
@@ -7694,10 +7757,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7720,16 +7783,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7779,7 +7842,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7806,7 +7869,7 @@
         <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -7814,10 +7877,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7840,16 +7903,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7899,7 +7962,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7923,7 +7986,7 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7934,10 +7997,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7960,16 +8023,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8019,7 +8082,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8043,7 +8106,7 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8054,10 +8117,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8083,13 +8146,13 @@
         <v>179</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8115,14 +8178,14 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8139,7 +8202,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8166,7 +8229,7 @@
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8174,10 +8237,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8200,16 +8263,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8259,7 +8322,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8283,7 +8346,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8294,10 +8357,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8320,16 +8383,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8379,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8403,7 +8466,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8414,10 +8477,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8443,13 +8506,13 @@
         <v>157</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8499,7 +8562,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8534,10 +8597,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8560,16 +8623,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8619,7 +8682,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8643,21 +8706,21 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8680,16 +8743,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8739,7 +8802,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8754,10 +8817,10 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8774,10 +8837,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8803,13 +8866,13 @@
         <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8835,14 +8898,14 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8859,7 +8922,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8880,24 +8943,24 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AO57" t="s" s="2">
+      <c r="AP57" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8920,13 +8983,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8965,7 +9028,7 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
@@ -8975,7 +9038,7 @@
         <v>166</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8996,27 +9059,27 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AP58" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
@@ -9038,13 +9101,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9095,7 +9158,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9107,36 +9170,36 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AP59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>79</v>
@@ -9158,13 +9221,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9215,7 +9278,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9227,36 +9290,36 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AP60" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>79</v>
@@ -9278,13 +9341,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9335,7 +9398,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9347,33 +9410,33 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AP61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9396,13 +9459,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9429,14 +9492,14 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9453,7 +9516,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9480,7 +9543,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9488,10 +9551,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9514,16 +9577,16 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9573,7 +9636,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9608,10 +9671,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9634,13 +9697,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9691,7 +9754,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9712,13 +9775,13 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9726,10 +9789,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9752,13 +9815,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9797,19 +9860,17 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9830,7 +9891,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9844,12 +9905,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9870,13 +9933,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>157</v>
+        <v>487</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>158</v>
+        <v>488</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>159</v>
+        <v>489</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9927,19 +9990,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>160</v>
+        <v>486</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9948,13 +10011,13 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -9965,18 +10028,18 @@
         <v>493</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9988,17 +10051,15 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10035,31 +10096,31 @@
         <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10082,21 +10143,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10105,19 +10166,19 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
+        <v>137</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>496</v>
+        <v>163</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>497</v>
+        <v>139</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10155,31 +10216,31 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>498</v>
+        <v>167</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10194,7 +10255,7 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10202,10 +10263,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10228,16 +10289,16 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10263,13 +10324,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10287,7 +10348,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10296,7 +10357,7 @@
         <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>102</v>
@@ -10322,10 +10383,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10348,16 +10409,16 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10383,13 +10444,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10434,7 +10495,7 @@
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10445,7 +10506,7 @@
         <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10465,18 +10526,20 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>158</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10525,7 +10588,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>160</v>
+        <v>517</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10537,7 +10600,7 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10552,7 +10615,7 @@
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -10560,21 +10623,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10586,17 +10649,15 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10633,31 +10694,31 @@
         <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10680,46 +10741,44 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10743,43 +10802,43 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10791,10 +10850,10 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10802,10 +10861,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10822,25 +10881,25 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10865,13 +10924,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -10889,7 +10948,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10913,7 +10972,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>177</v>
@@ -10924,10 +10983,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10947,19 +11006,23 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10983,13 +11046,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11007,7 +11070,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11019,7 +11082,7 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11031,10 +11094,10 @@
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -11042,21 +11105,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11068,17 +11131,15 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11115,31 +11176,31 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11162,14 +11223,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11185,23 +11246,21 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11237,19 +11296,19 @@
         <v>79</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11261,7 +11320,7 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11273,10 +11332,10 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11284,10 +11343,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11298,10 +11357,10 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>79</v>
@@ -11310,19 +11369,19 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11332,7 +11391,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11371,13 +11430,13 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11386,7 +11445,7 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
@@ -11395,10 +11454,10 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11406,10 +11465,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11423,7 +11482,7 @@
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>79</v>
@@ -11432,19 +11491,19 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11454,10 +11513,10 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>79</v>
@@ -11493,7 +11552,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11505,10 +11564,10 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>535</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
@@ -11517,10 +11576,10 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>79</v>
@@ -11528,10 +11587,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11545,7 +11604,7 @@
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>79</v>
@@ -11554,18 +11613,20 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11577,7 +11638,7 @@
         <v>79</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>79</v>
@@ -11613,7 +11674,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11628,19 +11689,19 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>79</v>
@@ -11648,10 +11709,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11665,7 +11726,7 @@
         <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>79</v>
@@ -11674,15 +11735,17 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11695,7 +11758,7 @@
         <v>79</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>79</v>
@@ -11731,7 +11794,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11743,22 +11806,22 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>541</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>79</v>
@@ -11766,10 +11829,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11792,17 +11855,15 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11851,7 +11912,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11875,10 +11936,10 @@
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -11886,10 +11947,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11912,16 +11973,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>529</v>
+        <v>238</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>530</v>
+        <v>239</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>531</v>
+        <v>240</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11971,7 +12032,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>532</v>
+        <v>241</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11995,17 +12056,137 @@
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AO83" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AP83" t="s" s="2">
+      <c r="AP84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP83">
+  <autoFilter ref="A1:AP84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12015,7 +12196,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
